--- a/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99102</v>
+        <v>99186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>137249</v>
+        <v>138161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2210188566601475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1868613455215012</v>
+        <v>0.1870189553691574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.258787805621306</v>
+        <v>0.2605082253217052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -765,19 +765,19 @@
         <v>151887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132552</v>
+        <v>131263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173366</v>
+        <v>172876</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.258503651676349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.225596246372026</v>
+        <v>0.2234017797555684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2950585131257571</v>
+        <v>0.2942257631050152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>262</v>
@@ -786,19 +786,19 @@
         <v>269105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241456</v>
+        <v>240172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>298621</v>
+        <v>298318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2407204309963138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2159873653444774</v>
+        <v>0.2148393286617109</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2671229965749126</v>
+        <v>0.2668515612520221</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>413134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393103</v>
+        <v>392191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431250</v>
+        <v>431166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7789811433398526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7412121943786938</v>
+        <v>0.7394917746782949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8131386544784988</v>
+        <v>0.8129810446308426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -836,19 +836,19 @@
         <v>435677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>414198</v>
+        <v>414688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455012</v>
+        <v>456301</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.741496348323651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7049414868742429</v>
+        <v>0.7057742368949848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7744037536279734</v>
+        <v>0.7765982202444316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>852</v>
@@ -857,19 +857,19 @@
         <v>848811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>819295</v>
+        <v>819598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>876460</v>
+        <v>877744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7592795690036862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7328770034250878</v>
+        <v>0.733148438747978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7840126346555228</v>
+        <v>0.7851606713382895</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>169517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146877</v>
+        <v>147856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194974</v>
+        <v>195786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2267410374391737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1964577646864151</v>
+        <v>0.197767158182006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.260791262029543</v>
+        <v>0.2618773237653218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>205</v>
@@ -982,19 +982,19 @@
         <v>218295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>193329</v>
+        <v>192357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245042</v>
+        <v>245596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.257848747667158</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2283592195584876</v>
+        <v>0.2272110551189685</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2894425490744488</v>
+        <v>0.2900964297733887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>359</v>
@@ -1003,19 +1003,19 @@
         <v>387812</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356225</v>
+        <v>356230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>424864</v>
+        <v>423978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2432605310716958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.22344739985701</v>
+        <v>0.223449962489789</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2665017506589685</v>
+        <v>0.2659464278298765</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>578108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>552651</v>
+        <v>551839</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>600748</v>
+        <v>599769</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7732589625608263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7392087379704568</v>
+        <v>0.7381226762346779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8035422353135847</v>
+        <v>0.802232841817994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>589</v>
@@ -1053,19 +1053,19 @@
         <v>628305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>601558</v>
+        <v>601004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>653271</v>
+        <v>654243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.742151252332842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7105574509255513</v>
+        <v>0.7099035702266112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7716407804415124</v>
+        <v>0.7727889448810313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1139</v>
@@ -1074,19 +1074,19 @@
         <v>1206413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1169361</v>
+        <v>1170247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1238000</v>
+        <v>1237995</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7567394689283042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7334982493410315</v>
+        <v>0.7340535721701235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.77655260014299</v>
+        <v>0.776550037510211</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>108294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90904</v>
+        <v>91311</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127536</v>
+        <v>127594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2107571932212516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1769148583133175</v>
+        <v>0.1777068980974358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2482053976303369</v>
+        <v>0.248318475103499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -1199,19 +1199,19 @@
         <v>148632</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129967</v>
+        <v>126957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171706</v>
+        <v>171296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.255015796904454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2229902251395724</v>
+        <v>0.2178262953429038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2946048513019422</v>
+        <v>0.2939014227280449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>255</v>
@@ -1220,19 +1220,19 @@
         <v>256926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>228554</v>
+        <v>228007</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285916</v>
+        <v>289788</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2342789041809957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2084077086034331</v>
+        <v>0.2079096945669634</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2607140489692287</v>
+        <v>0.2642443867768485</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>405537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>386295</v>
+        <v>386237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422927</v>
+        <v>422520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7892428067787484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.751794602369663</v>
+        <v>0.751681524896501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8230851416866825</v>
+        <v>0.8222931019025641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>442</v>
@@ -1270,19 +1270,19 @@
         <v>434203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411129</v>
+        <v>411539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452868</v>
+        <v>455878</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.744984203095546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7053951486980579</v>
+        <v>0.7060985772719552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7770097748604278</v>
+        <v>0.7821737046570962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -1291,19 +1291,19 @@
         <v>839740</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>810750</v>
+        <v>806878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>868112</v>
+        <v>868659</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7657210958190044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7392859510307711</v>
+        <v>0.7357556132231506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7915922913965667</v>
+        <v>0.7920903054330363</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>143061</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121745</v>
+        <v>124269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165794</v>
+        <v>165279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.212674901052167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.180986218307281</v>
+        <v>0.1847378127604944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2464691518888209</v>
+        <v>0.24570449977915</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -1416,19 +1416,19 @@
         <v>233706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>208317</v>
+        <v>207956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258978</v>
+        <v>262529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2728765276706539</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2432311187559521</v>
+        <v>0.2428099745557698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3023838205885986</v>
+        <v>0.3065299003423811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -1437,19 +1437,19 @@
         <v>376768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>341871</v>
+        <v>346491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>411136</v>
+        <v>411952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2463934209010665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2235719443268041</v>
+        <v>0.2265932352834417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2688691337084057</v>
+        <v>0.2694031552511941</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>529614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>506881</v>
+        <v>507396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>550930</v>
+        <v>548406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.787325098947833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7535308481111791</v>
+        <v>0.7542955002208495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8190137816927191</v>
+        <v>0.8152621872395053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -1487,19 +1487,19 @@
         <v>622749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597477</v>
+        <v>593926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648138</v>
+        <v>648499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.727123472329346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6976161794114014</v>
+        <v>0.693470099657619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.756768881244048</v>
+        <v>0.7571900254442301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1161</v>
@@ -1508,19 +1508,19 @@
         <v>1152362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1117994</v>
+        <v>1117178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1187259</v>
+        <v>1182639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7536065790989335</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7311308662915942</v>
+        <v>0.7305968447488057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7764280556731958</v>
+        <v>0.7734067647165582</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>538090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2183377730115744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>727</v>
@@ -1633,19 +1633,19 @@
         <v>752521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2618871887969719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1251</v>
@@ -1654,19 +1654,19 @@
         <v>1290610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2417807702481004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1926393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1887381</v>
+        <v>1884888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1972260</v>
+        <v>1966824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7816622269884257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7658322832430736</v>
+        <v>0.7648206932133982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8002734132980636</v>
+        <v>0.7980676971843129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2072</v>
@@ -1704,19 +1704,19 @@
         <v>2120932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2069322</v>
+        <v>2074805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2167423</v>
+        <v>2167908</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7381128112030282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7201517659655604</v>
+        <v>0.7220597432443707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7542922545825138</v>
+        <v>0.7544608590394014</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3984</v>
@@ -1725,19 +1725,19 @@
         <v>4047326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3985392</v>
+        <v>3981359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4106498</v>
+        <v>4113888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7582192297518996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7466167393908808</v>
+        <v>0.7458610873552195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7693044583972981</v>
+        <v>0.7706888185386939</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>311445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>288400</v>
+        <v>287437</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>337277</v>
+        <v>336791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5290564023159525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4899100690515003</v>
+        <v>0.4882729311225187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5729373933696403</v>
+        <v>0.5721123547286774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>318</v>
@@ -2090,19 +2090,19 @@
         <v>340952</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316151</v>
+        <v>313850</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366369</v>
+        <v>367111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5526477121143828</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5124489603337558</v>
+        <v>0.5087180419771162</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5938473026853874</v>
+        <v>0.5950501649103475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>614</v>
@@ -2111,19 +2111,19 @@
         <v>652397</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>616512</v>
+        <v>618736</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>688841</v>
+        <v>691696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5411285710060073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5113645241811912</v>
+        <v>0.5132089448331978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5713573430814007</v>
+        <v>0.5737255734562858</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>277235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251403</v>
+        <v>251889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300280</v>
+        <v>301243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4709435976840475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4270626066303596</v>
+        <v>0.4278876452713226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5100899309484997</v>
+        <v>0.5117270688774813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -2161,19 +2161,19 @@
         <v>275990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250573</v>
+        <v>249831</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300791</v>
+        <v>303092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4473522878856173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4061526973146125</v>
+        <v>0.4049498350896525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4875510396662443</v>
+        <v>0.4912819580228837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>523</v>
@@ -2182,19 +2182,19 @@
         <v>553225</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516781</v>
+        <v>513926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>589110</v>
+        <v>586886</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4588714289939926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4286426569185995</v>
+        <v>0.4262744265437143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4886354758188093</v>
+        <v>0.4867910551668023</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>451281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>422056</v>
+        <v>422558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>479712</v>
+        <v>478752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5488049101275483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5132645366825969</v>
+        <v>0.5138741260530085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5833792783178171</v>
+        <v>0.5822122551936464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>470</v>
@@ -2307,19 +2307,19 @@
         <v>518653</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>488303</v>
+        <v>488132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>550123</v>
+        <v>548596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5643134948923518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5312918003924918</v>
+        <v>0.5311057859919841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.598553786053646</v>
+        <v>0.5968920486862251</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>888</v>
@@ -2328,19 +2328,19 @@
         <v>969934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>924848</v>
+        <v>928314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1008386</v>
+        <v>1015570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5569901997938091</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5310993732461069</v>
+        <v>0.5330894327638975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5790712285791911</v>
+        <v>0.5831967372030973</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>371017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342586</v>
+        <v>343546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>400242</v>
+        <v>399740</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4511950898724517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4166207216821828</v>
+        <v>0.4177877448063536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4867354633174031</v>
+        <v>0.4861258739469915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>368</v>
@@ -2378,19 +2378,19 @@
         <v>400434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>368964</v>
+        <v>370491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430784</v>
+        <v>430955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4356865051076482</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4014462139463541</v>
+        <v>0.403107951313775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4687081996075083</v>
+        <v>0.468894214008016</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -2399,19 +2399,19 @@
         <v>771451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732999</v>
+        <v>725815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>816537</v>
+        <v>813071</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4430098002061909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4209287714208087</v>
+        <v>0.4168032627969026</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4689006267538927</v>
+        <v>0.4669105672361025</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>324591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297040</v>
+        <v>298247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>350025</v>
+        <v>349255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5512254812596966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5044380863755801</v>
+        <v>0.5064888695675884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5944176788600413</v>
+        <v>0.5931105132710099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>366</v>
@@ -2524,19 +2524,19 @@
         <v>398506</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>367827</v>
+        <v>369950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>422716</v>
+        <v>425661</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5790086798181507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.534434133927691</v>
+        <v>0.5375183533885945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6141854111939195</v>
+        <v>0.6184640998101206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>664</v>
@@ -2545,19 +2545,19 @@
         <v>723096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>687093</v>
+        <v>687817</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>762603</v>
+        <v>761243</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5661983076780351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5380072991300794</v>
+        <v>0.5385740449541414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5971327712804452</v>
+        <v>0.5960681959395963</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>264262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238828</v>
+        <v>239598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291813</v>
+        <v>290606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4487745187403034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4055823211399586</v>
+        <v>0.40688948672899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4955619136244198</v>
+        <v>0.4935111304324115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>255</v>
@@ -2595,19 +2595,19 @@
         <v>289749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>265539</v>
+        <v>262594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320428</v>
+        <v>318305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4209913201818492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3858145888060805</v>
+        <v>0.3815359001898794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.465565866072309</v>
+        <v>0.4624816466114052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -2616,19 +2616,19 @@
         <v>554012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>514505</v>
+        <v>515865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>590015</v>
+        <v>589291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4338016923219649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4028672287195548</v>
+        <v>0.4039318040604037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4619927008699204</v>
+        <v>0.4614259550458585</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>336332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>309030</v>
+        <v>309975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362433</v>
+        <v>366102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4494063677565938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.412926331272668</v>
+        <v>0.4141886904498392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.484282773098801</v>
+        <v>0.489185253555033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>429</v>
@@ -2741,19 +2741,19 @@
         <v>444338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>413391</v>
+        <v>415629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>474781</v>
+        <v>476755</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4833454674029001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4496812309461299</v>
+        <v>0.4521156857111789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5164605045695185</v>
+        <v>0.5186087519829758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>752</v>
@@ -2762,19 +2762,19 @@
         <v>780670</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>738359</v>
+        <v>736987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>824288</v>
+        <v>822620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4681149782781682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4427443845746566</v>
+        <v>0.4419216393645153</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4942696347400727</v>
+        <v>0.4932699532688375</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>412059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>385958</v>
+        <v>382289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439361</v>
+        <v>438416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5505936322434062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5157172269011989</v>
+        <v>0.510814746444967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5870736687273319</v>
+        <v>0.5858113095501606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>449</v>
@@ -2812,19 +2812,19 @@
         <v>474959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>444516</v>
+        <v>442542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>505906</v>
+        <v>503668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5166545325970999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4835394954304817</v>
+        <v>0.4813912480170242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5503187690538701</v>
+        <v>0.5478843142888211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>844</v>
@@ -2833,19 +2833,19 @@
         <v>887018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>843400</v>
+        <v>845068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>929329</v>
+        <v>930701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5318850217218317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5057303652599272</v>
+        <v>0.5067300467311625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5572556154253434</v>
+        <v>0.5580783606354847</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1423649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5180253263074112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1583</v>
@@ -2958,19 +2958,19 @@
         <v>1702448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5415633995510047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2918</v>
@@ -2979,19 +2979,19 @@
         <v>3126097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5305841043809743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1324573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1266125</v>
+        <v>1266909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1376900</v>
+        <v>1378567</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4819746736925888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4607070756902963</v>
+        <v>0.4609920613844556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5010148185551188</v>
+        <v>0.5016213960729314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1330</v>
@@ -3029,19 +3029,19 @@
         <v>1441133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1384828</v>
+        <v>1379232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1499145</v>
+        <v>1496112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4584366004489952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4405257747276986</v>
+        <v>0.4387456173364001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4768907939584093</v>
+        <v>0.47592594088082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2563</v>
@@ -3050,19 +3050,19 @@
         <v>2765706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2687704</v>
+        <v>2689631</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2842212</v>
+        <v>2850312</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4694158956190257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4561768658385654</v>
+        <v>0.456503975887657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4824009915793272</v>
+        <v>0.483775865512603</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>246464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224356</v>
+        <v>224261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270573</v>
+        <v>267269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4867393678041762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4430791852070189</v>
+        <v>0.4428912536505978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5343532292987747</v>
+        <v>0.5278267558833162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -3415,19 +3415,19 @@
         <v>271713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248655</v>
+        <v>248141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>295599</v>
+        <v>295635</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4861087017618365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4448565928254843</v>
+        <v>0.4439367926332302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5288403946470269</v>
+        <v>0.5289050032972689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>502</v>
@@ -3436,19 +3436,19 @@
         <v>518177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>487169</v>
+        <v>486110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>549801</v>
+        <v>550654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4864084652056834</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4573010226375536</v>
+        <v>0.4563068609473517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5160930995296992</v>
+        <v>0.5168938714643324</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>259893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235784</v>
+        <v>239088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282001</v>
+        <v>282096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5132606321958239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4656467707012255</v>
+        <v>0.4721732441166841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5569208147929811</v>
+        <v>0.5571087463494023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>283</v>
@@ -3486,19 +3486,19 @@
         <v>287243</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263357</v>
+        <v>263321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310301</v>
+        <v>310815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5138912982381635</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4711596053529731</v>
+        <v>0.4710949967027311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5551434071745145</v>
+        <v>0.55606320736677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>539</v>
@@ -3507,19 +3507,19 @@
         <v>547136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515512</v>
+        <v>514659</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578144</v>
+        <v>579203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5135915347943166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4839069004703008</v>
+        <v>0.4831061285356675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5426989773624464</v>
+        <v>0.5436931390526482</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>331500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>301169</v>
+        <v>305507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>357532</v>
+        <v>358932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4353917365661633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.395555661169773</v>
+        <v>0.4012524139337286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4695824264088626</v>
+        <v>0.4714215787402897</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>420</v>
@@ -3632,19 +3632,19 @@
         <v>445382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>412364</v>
+        <v>415052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>479170</v>
+        <v>477050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4945869160781428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4579206741020262</v>
+        <v>0.460906687624755</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5321080927077004</v>
+        <v>0.5297536245670137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>731</v>
@@ -3653,19 +3653,19 @@
         <v>776882</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>736302</v>
+        <v>734040</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>825325</v>
+        <v>819730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4674671666678136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4430494012644754</v>
+        <v>0.4416880315136631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4966162603649353</v>
+        <v>0.4932499578072116</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>429883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403851</v>
+        <v>402451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460214</v>
+        <v>455876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5646082634338367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5304175735911373</v>
+        <v>0.5285784212597102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.604444338830227</v>
+        <v>0.5987475860662713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -3703,19 +3703,19 @@
         <v>455131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>421343</v>
+        <v>423463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488149</v>
+        <v>485461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5054130839218572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4678919072922997</v>
+        <v>0.4702463754329864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5420793258979738</v>
+        <v>0.5390933123752456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>825</v>
@@ -3724,19 +3724,19 @@
         <v>885014</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>836571</v>
+        <v>842166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>925594</v>
+        <v>927856</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5325328333321864</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5033837396350647</v>
+        <v>0.5067500421927883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5569505987355245</v>
+        <v>0.5583119684863368</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>186804</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163669</v>
+        <v>163036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>209572</v>
+        <v>208516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3418544119913428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2995176214477366</v>
+        <v>0.298359799568968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.383520902601386</v>
+        <v>0.3815885470805845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -3849,19 +3849,19 @@
         <v>262132</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236679</v>
+        <v>236014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>288097</v>
+        <v>288002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4096096911825221</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3698371259832193</v>
+        <v>0.3687965844474016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4501823825323095</v>
+        <v>0.4500333631512929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>423</v>
@@ -3870,19 +3870,19 @@
         <v>448936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>412685</v>
+        <v>416262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485237</v>
+        <v>485533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3784023447769072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3478468166783513</v>
+        <v>0.3508620140689911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4090001628603593</v>
+        <v>0.4092493716267018</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>359638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336870</v>
+        <v>337926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>382773</v>
+        <v>383406</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6581455880086572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6164790973986141</v>
+        <v>0.6184114529194156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7004823785522635</v>
+        <v>0.7016402004310321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -3920,19 +3920,19 @@
         <v>377824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>351859</v>
+        <v>351954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403277</v>
+        <v>403942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.590390308817478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5498176174676904</v>
+        <v>0.5499666368487068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6301628740167801</v>
+        <v>0.6312034155525977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>678</v>
@@ -3941,19 +3941,19 @@
         <v>737463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701162</v>
+        <v>700866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>773714</v>
+        <v>770137</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6215976552230928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5909998371396407</v>
+        <v>0.5907506283732979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6521531833216487</v>
+        <v>0.6491379859310087</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>275351</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>250898</v>
+        <v>251132</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302607</v>
+        <v>301845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4020838479647012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3663751041706023</v>
+        <v>0.3667173526081016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4418832955923194</v>
+        <v>0.440771371779939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>373</v>
@@ -4066,19 +4066,19 @@
         <v>407590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>377793</v>
+        <v>376676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>439966</v>
+        <v>434980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4774410370602239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4425375104924338</v>
+        <v>0.4412288707836775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5153653610895794</v>
+        <v>0.5095251518664377</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>646</v>
@@ -4087,19 +4087,19 @@
         <v>682941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>645878</v>
+        <v>643540</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>723235</v>
+        <v>722150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4438985309004842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4198082546913917</v>
+        <v>0.4182880909960886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4700883100729932</v>
+        <v>0.4693831944087751</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>409460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>382204</v>
+        <v>382966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433913</v>
+        <v>433679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5979161520352988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5581167044076806</v>
+        <v>0.5592286282200611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6336248958293976</v>
+        <v>0.6332826473918985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>404</v>
@@ -4137,19 +4137,19 @@
         <v>446107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>413731</v>
+        <v>418717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475904</v>
+        <v>477021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5225589629397761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4846346389104206</v>
+        <v>0.4904748481335624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5574624895075662</v>
+        <v>0.5587711292163225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>818</v>
@@ -4158,19 +4158,19 @@
         <v>855567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>815273</v>
+        <v>816358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892630</v>
+        <v>894968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5561014690995157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5299116899270068</v>
+        <v>0.530616805591225</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5801917453086083</v>
+        <v>0.5817119090039115</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1040119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4162151537538221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1306</v>
@@ -4283,19 +4283,19 @@
         <v>1386818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4696106301764345</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2302</v>
@@ -4304,19 +4304,19 @@
         <v>2426937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4451366621481327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1458874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1411510</v>
+        <v>1408340</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1508091</v>
+        <v>1508462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5837848462461779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5648314809032235</v>
+        <v>0.5635628673799035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6034793990268823</v>
+        <v>0.6036278464773119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1455</v>
@@ -4354,19 +4354,19 @@
         <v>1566305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1503555</v>
+        <v>1511547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1620547</v>
+        <v>1620087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5303893698235655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5091405458267391</v>
+        <v>0.5118468670345927</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5487570243523757</v>
+        <v>0.5486012033876971</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2860</v>
@@ -4375,19 +4375,19 @@
         <v>3025179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2948050</v>
+        <v>2949170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3102362</v>
+        <v>3105459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5548633378518673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5407166649636027</v>
+        <v>0.5409221632020947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5690198869365694</v>
+        <v>0.5695879212350274</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>109490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93204</v>
+        <v>91762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130010</v>
+        <v>129307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2385249321671341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2030442167945478</v>
+        <v>0.1999045699120298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2832274603218958</v>
+        <v>0.2816953215688791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>263</v>
@@ -4740,19 +4740,19 @@
         <v>148346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131434</v>
+        <v>131186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165024</v>
+        <v>165257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.260009883764902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2303674003928206</v>
+        <v>0.2299337786584813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2892413688634189</v>
+        <v>0.2896508823767087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -4761,19 +4761,19 @@
         <v>257836</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>234928</v>
+        <v>234587</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283318</v>
+        <v>282816</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2504308896498423</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2281806360536332</v>
+        <v>0.2278497809684281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2751805274891367</v>
+        <v>0.2746935692950217</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>349541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>329021</v>
+        <v>329724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>365827</v>
+        <v>367269</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7614750678328657</v>
+        <v>0.7614750678328659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7167725396781042</v>
+        <v>0.7183046784311213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7969557832054525</v>
+        <v>0.8000954300879705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>744</v>
@@ -4811,19 +4811,19 @@
         <v>422194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>405516</v>
+        <v>405283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>439106</v>
+        <v>439354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.739990116235098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7107586311365812</v>
+        <v>0.7103491176232913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7696325996071794</v>
+        <v>0.7700662213415188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1151</v>
@@ -4832,19 +4832,19 @@
         <v>771734</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746252</v>
+        <v>746754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>794642</v>
+        <v>794983</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7495691103501578</v>
+        <v>0.7495691103501577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7248194725108633</v>
+        <v>0.7253064307049786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7718193639463671</v>
+        <v>0.7721502190315727</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>197036</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172468</v>
+        <v>169379</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222488</v>
+        <v>222497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2798930127069167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2449927277991724</v>
+        <v>0.2406055736890565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.316047453013858</v>
+        <v>0.316060977108115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>401</v>
@@ -4957,19 +4957,19 @@
         <v>279379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255084</v>
+        <v>255249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>303785</v>
+        <v>302378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3331592678445007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3041873907417242</v>
+        <v>0.3043845517526751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3622637442828296</v>
+        <v>0.3605851007612244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>592</v>
@@ -4978,19 +4978,19 @@
         <v>476415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>440507</v>
+        <v>443346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511030</v>
+        <v>514210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3088501978496463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2855713986958846</v>
+        <v>0.2874120255499306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.331290455562322</v>
+        <v>0.333351978891698</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>506934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481482</v>
+        <v>481473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>531502</v>
+        <v>534591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7201069872930833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6839525469861421</v>
+        <v>0.6839390228918849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7550072722008275</v>
+        <v>0.7593944263109434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>829</v>
@@ -5028,19 +5028,19 @@
         <v>559196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534790</v>
+        <v>536197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>583491</v>
+        <v>583326</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6668407321554993</v>
+        <v>0.6668407321554991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6377362557171704</v>
+        <v>0.6394148992387756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6958126092582758</v>
+        <v>0.6956154482473248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1336</v>
@@ -5049,19 +5049,19 @@
         <v>1066130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1031515</v>
+        <v>1028335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1102038</v>
+        <v>1099199</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6911498021503538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6687095444376779</v>
+        <v>0.666648021108302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7144286013041152</v>
+        <v>0.7125879744500695</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>123968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103606</v>
+        <v>103691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145776</v>
+        <v>145447</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2222377147033595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1857349642259769</v>
+        <v>0.1858867721132145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2613329512958933</v>
+        <v>0.260742124377897</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -5174,19 +5174,19 @@
         <v>155875</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135752</v>
+        <v>135419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176342</v>
+        <v>177498</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2419550334386404</v>
+        <v>0.2419550334386405</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.210719534811471</v>
+        <v>0.2102020409246344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2737243248033007</v>
+        <v>0.2755197937169746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>304</v>
@@ -5195,19 +5195,19 @@
         <v>279843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252719</v>
+        <v>248700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>309953</v>
+        <v>310644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2328050988706768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2102405497036084</v>
+        <v>0.2068968144318769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2578538112638037</v>
+        <v>0.2584287587899361</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>433850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412042</v>
+        <v>412371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454212</v>
+        <v>454127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7777622852966404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7386670487041065</v>
+        <v>0.7392578756221028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.814265035774023</v>
+        <v>0.8141132278867854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -5245,19 +5245,19 @@
         <v>488356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>467889</v>
+        <v>466733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>508479</v>
+        <v>508812</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7580449665613594</v>
+        <v>0.7580449665613596</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7262756751966989</v>
+        <v>0.7244802062830253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.789280465188528</v>
+        <v>0.7897979590753655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1056</v>
@@ -5266,19 +5266,19 @@
         <v>922206</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>892096</v>
+        <v>891405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>949330</v>
+        <v>953349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7671949011293231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7421461887361963</v>
+        <v>0.7415712412100639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7897594502963916</v>
+        <v>0.7931031855681229</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>140755</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119498</v>
+        <v>121188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163088</v>
+        <v>163847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.215017706147845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1825446139418189</v>
+        <v>0.1851268258838853</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2491325011779631</v>
+        <v>0.2502924444074555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>307</v>
@@ -5391,19 +5391,19 @@
         <v>214931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193781</v>
+        <v>194508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237710</v>
+        <v>239167</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2595764686191602</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2340330883159296</v>
+        <v>0.2349114573310636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2870871423309361</v>
+        <v>0.2888474694869116</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>461</v>
@@ -5412,19 +5412,19 @@
         <v>355686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>323829</v>
+        <v>326785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>386984</v>
+        <v>385875</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2399025179648639</v>
+        <v>0.239902517964864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2184156401264933</v>
+        <v>0.2204094154680227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.261012021289645</v>
+        <v>0.2602643375338733</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>513867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491534</v>
+        <v>490775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>535124</v>
+        <v>533434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7849822938521549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.750867498822037</v>
+        <v>0.7497075555925445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.817455386058181</v>
+        <v>0.8148731741161147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>913</v>
@@ -5462,19 +5462,19 @@
         <v>613075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590296</v>
+        <v>588839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>634225</v>
+        <v>633498</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7404235313808397</v>
+        <v>0.7404235313808396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.712912857669064</v>
+        <v>0.7111525305130882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7659669116840702</v>
+        <v>0.7650885426689362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1485</v>
@@ -5483,19 +5483,19 @@
         <v>1126942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1095644</v>
+        <v>1096753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1158799</v>
+        <v>1155843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7600974820351361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7389879787103553</v>
+        <v>0.7397356624661268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7815843598735067</v>
+        <v>0.7795905845319772</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>571250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2404817166897065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1166</v>
@@ -5608,19 +5608,19 @@
         <v>798531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1745</v>
@@ -5629,19 +5629,19 @@
         <v>1369781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.260573513015071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1804190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1759230</v>
+        <v>1757788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1846983</v>
+        <v>1847560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7595182833102936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.74059131152149</v>
+        <v>0.7399839873797606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7775330203459491</v>
+        <v>0.7777759484355766</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3145</v>
@@ -5679,19 +5679,19 @@
         <v>2082821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2040103</v>
+        <v>2041854</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2124695</v>
+        <v>2121210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7228624382537454</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7080366537387455</v>
+        <v>0.7086445077017185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7373950512110259</v>
+        <v>0.7361857500078836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5028</v>
@@ -5700,19 +5700,19 @@
         <v>3887011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3829425</v>
+        <v>3822697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3948915</v>
+        <v>3948261</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.739426486984929</v>
+        <v>0.7394264869849291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7284718939873422</v>
+        <v>0.7271920162235671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7512024055050186</v>
+        <v>0.7510780707479841</v>
       </c>
     </row>
     <row r="18">
